--- a/AAII_Financials/Quarterly/BVTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVTK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
